--- a/Emily 班每日一题.xlsx
+++ b/Emily 班每日一题.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0808" sheetId="1" r:id="rId1"/>
+    <sheet name="0809" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,60 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Pandas使用什么命令读取一个数据集中的数据？</t>
-  </si>
-  <si>
-    <t>假设某一数据集有A,B,C三列数据，请写出同时读取B，C两列数据的代码。（假设数据已经读取并存储为df）</t>
-  </si>
-  <si>
-    <t>请将pandas DataFrames转变为NumPy数组。（假设数据已经读取并存储为df）</t>
-  </si>
-  <si>
-    <t>请列举至少三种机器学习领域的回归算法。</t>
-  </si>
-  <si>
-    <t>定义一个分类器classifier，现要求对X，y进行拟合，请写出该条代码。（提示：可以使用fit()）</t>
-  </si>
-  <si>
-    <t>填空：利用sklearn定义逻辑回归分类器classifier=_______。</t>
-  </si>
-  <si>
-    <t>填空：利用sklearn定义神经网络分类器classifier=_______。</t>
-  </si>
-  <si>
-    <t>填空：利用sklearn定义决策树分类器classifier=_______。</t>
-  </si>
-  <si>
-    <t>填空：利用sklearn定义SVM分类器classifier=_______。</t>
-  </si>
-  <si>
-    <t>请写出从sklearn中导入逻辑回归文件包的语句。</t>
-  </si>
-  <si>
-    <t>请写出从sklearn中导入神经网络文件包的语句。</t>
-  </si>
-  <si>
-    <t>请写出从sklearn中导入决策树文件包的语句。</t>
-  </si>
-  <si>
-    <t>请写出从sklearn中导入SVM文件包的语句。</t>
-  </si>
-  <si>
-    <t>分类器的内核参数kernel通常状况下可以设置为哪三种值？</t>
-  </si>
-  <si>
-    <t>一个训练后的模型太过完美地拟合数据，称之为什么？这种情况好不好？为什么？</t>
-  </si>
-  <si>
-    <t>Pandas和Numpy在Python中分别有什么作用？如果想要数据可视化，一般会采用哪种标准库？</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>17*</t>
-  </si>
-  <si>
-    <t>核方法下的支持向量机中，linear、poly，rbf在一般情况分别适用于什么结构的数据？我们应该怎样去选择kernel的类型？</t>
   </si>
   <si>
     <t>学号</t>
@@ -83,7 +33,1043 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>Pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用什么命令读取一个数据集中的数据？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设某一数据集有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>A,B,C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三列数据，请写出同时读取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两列数据的代码。（假设数据已经读取并存储为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>难度等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>pandas DataFrames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>NumPy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组。（假设数据已经读取并存储为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请列举至少三种机器学习领域的回归算法。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义一个分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，现要求对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行拟合，请写出该条代码。（提示：可以使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>fit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填空：利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义逻辑回归分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier=_______</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填空：利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义神经网络分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier=_______</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填空：利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义决策树分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier=_______</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填空：利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>SVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier=_______</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中导入逻辑回归文件包的语句。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中导入神经网络文件包的语句。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中导入决策树文件包的语句。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类器的内核参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常状况下可以设置为哪三种值？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个训练后的模型太过完美地拟合数据，称之为什么？这种情况好不好？为什么？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中分别有什么作用？如果想要数据可视化，一般会采用哪种标准库？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核方法下的支持向量机中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>poly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>rbf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在一般情况分别适用于什么结构的数据？我们应该怎样去选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的类型？</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>SVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件包的语句。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员答案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-Disguise:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小二乘法，梯度下降，岭回归，线性回归，逻辑回归等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”
+- - - - - - - - - - - - - - -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小二乘法，梯度下降是优化算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>岭回归，线性回归，逻辑回归是正确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@4-Disguise </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请以自己的理解简述混淆矩阵的作用？</t>
+  </si>
+  <si>
+    <t>混淆矩阵的行列分别表示什么含义？</t>
+  </si>
+  <si>
+    <t>假设样本总数为20000，模型的真正例，真负例，假正例，假负例的数量分别为10000,2000,6000,2000，请计算该模型的预测准确率。</t>
+  </si>
+  <si>
+    <t>已知样本总数，真正例，真负例，假正例，假负例数量的情况下，请写出计算模型准确率的表达式。</t>
+  </si>
+  <si>
+    <t>请写出从sklearn中导入逻辑回归文件包的语句。</t>
+  </si>
+  <si>
+    <t>请写出：利用sklearn的accuracy_score计算模型准确率的代码语句。（真实值Y_True, 预测值Y_Pred）</t>
+  </si>
+  <si>
+    <t>混淆矩阵适用于监督学习，半监督学习还是无监督学习？</t>
+  </si>
+  <si>
+    <t>准确率是一种绝对好的衡量模型性能的指标么？为什么？</t>
+  </si>
+  <si>
+    <t>请以自己的理解，解释真正例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+  </si>
+  <si>
+    <t>请以自己的理解，解释真负例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+  </si>
+  <si>
+    <t>请以自己的理解，解释假正例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+  </si>
+  <si>
+    <t>请以自己的理解，解释假负例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+  </si>
+  <si>
+    <t>模型的准确率高时，对应的真正例，真负例，假正例，假负例中，哪几种数据应当占总数比例高？</t>
+  </si>
+  <si>
+    <t>根据自己所掌握的知识，除准确率外，至少列举一种能够衡量模型性能的指标。</t>
+  </si>
+  <si>
+    <t>实际情况下误差不可避免，那么产生假正例一定会比假负例好么？如果不是，请举例说明。</t>
+  </si>
+  <si>
+    <t>假设样本总数为20000，模型的真负例，假正例，假负例的数量分别为2000,6000,2000，请计算该模型的召回率。（真正例/（真正例+假负例））</t>
+  </si>
+  <si>
+    <t>难度星级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一类错误和第二类错误的区别是什么？哪个是假正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，哪个是假负</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FN</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +1077,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +1112,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -159,6 +1172,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,36 +1467,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85.5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -476,32 +1764,32 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
+    </row>
+    <row r="4" spans="1:3" ht="60">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+    </row>
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
     </row>
@@ -509,144 +1797,3093 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="60">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30">
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" ht="44.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="8"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="8"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="8"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="8"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263" s="8"/>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265" s="8"/>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266" s="8"/>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267" s="8"/>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268" s="8"/>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="8"/>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" s="8"/>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271" s="8"/>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272" s="8"/>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" s="8"/>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="8"/>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="8"/>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="8"/>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277" s="8"/>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="8"/>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279" s="8"/>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="8"/>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281" s="8"/>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282" s="8"/>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283" s="8"/>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="8"/>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="8"/>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" s="8"/>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="8"/>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288" s="8"/>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" s="8"/>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" s="8"/>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" s="8"/>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" s="8"/>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" s="8"/>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="8"/>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" s="8"/>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" s="8"/>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" s="8"/>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298" s="8"/>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299" s="8"/>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300" s="8"/>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301" s="8"/>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302" s="8"/>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303" s="8"/>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="8"/>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305" s="8"/>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306" s="8"/>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307" s="8"/>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308" s="8"/>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309" s="8"/>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310" s="8"/>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311" s="8"/>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" s="8"/>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" s="8"/>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314" s="8"/>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315" s="8"/>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316" s="8"/>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317" s="8"/>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318" s="8"/>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="8"/>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="8"/>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" s="8"/>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="8"/>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323" s="8"/>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324" s="8"/>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325" s="8"/>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326" s="8"/>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327" s="8"/>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328" s="8"/>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329" s="8"/>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330" s="8"/>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331" s="8"/>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332" s="8"/>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333" s="8"/>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336" s="8"/>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337" s="8"/>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338" s="8"/>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340" s="8"/>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341" s="8"/>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342" s="8"/>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343" s="8"/>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="8"/>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" s="8"/>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346" s="8"/>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347" s="8"/>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348" s="8"/>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349" s="8"/>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350" s="8"/>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351" s="8"/>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" s="8"/>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" s="8"/>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="8"/>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" s="8"/>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" s="8"/>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="8"/>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" s="8"/>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="8"/>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="8"/>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" s="8"/>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="8"/>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" s="8"/>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" s="8"/>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" s="8"/>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367" s="8"/>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368" s="8"/>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369" s="8"/>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" s="8"/>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" s="8"/>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" s="8"/>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" s="8"/>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375" s="8"/>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" s="8"/>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" s="8"/>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" s="8"/>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379" s="8"/>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380" s="8"/>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381" s="8"/>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382" s="8"/>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383" s="8"/>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384" s="8"/>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385" s="8"/>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386" s="8"/>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387" s="8"/>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388" s="8"/>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389" s="8"/>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390" s="8"/>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391" s="8"/>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392" s="8"/>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393" s="8"/>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" s="8"/>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395" s="8"/>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" s="8"/>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" s="8"/>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398" s="8"/>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" s="8"/>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400" s="8"/>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401" s="8"/>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402" s="8"/>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403" s="8"/>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="8"/>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405" s="8"/>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" s="8"/>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" s="8"/>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" s="8"/>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="8"/>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" s="8"/>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" s="8"/>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" s="8"/>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" s="8"/>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415" s="8"/>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="8"/>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418" s="8"/>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419" s="8"/>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420" s="8"/>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="8"/>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422" s="8"/>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" s="8"/>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" s="8"/>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" s="8"/>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" s="8"/>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427" s="8"/>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428" s="8"/>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" s="8"/>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" s="8"/>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" s="8"/>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432" s="8"/>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433" s="8"/>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434" s="8"/>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435" s="8"/>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436" s="8"/>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437" s="8"/>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438" s="8"/>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439" s="8"/>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440" s="8"/>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441" s="8"/>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442" s="8"/>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443" s="8"/>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444" s="8"/>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445" s="8"/>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446" s="8"/>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447" s="8"/>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" s="8"/>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449" s="8"/>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450" s="8"/>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" s="8"/>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452" s="8"/>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453" s="8"/>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454" s="8"/>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455" s="8"/>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456" s="8"/>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457" s="8"/>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458" s="8"/>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459" s="8"/>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" s="8"/>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461" s="8"/>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" s="8"/>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463" s="8"/>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" s="8"/>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="8"/>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466" s="8"/>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="8"/>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="8"/>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="8"/>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="8"/>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="8"/>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="8"/>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="8"/>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="8"/>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="8"/>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="8"/>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="8"/>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="8"/>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="8"/>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="8"/>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="8"/>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="8"/>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483" s="8"/>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="8"/>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="8"/>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486" s="8"/>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487" s="8"/>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="8"/>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="8"/>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="8"/>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="8"/>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="8"/>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="8"/>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="8"/>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495" s="8"/>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="8"/>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="8"/>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498" s="8"/>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499" s="8"/>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500" s="8"/>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501" s="8"/>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502" s="8"/>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503" s="8"/>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" s="8"/>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505" s="8"/>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" s="8"/>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507" s="8"/>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508" s="8"/>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509" s="8"/>
+    </row>
+    <row r="510" spans="3:3">
+      <c r="C510" s="8"/>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511" s="8"/>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512" s="8"/>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513" s="8"/>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514" s="8"/>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515" s="8"/>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516" s="8"/>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" s="8"/>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" s="8"/>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519" s="8"/>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" s="8"/>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521" s="8"/>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" s="8"/>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523" s="8"/>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" s="8"/>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525" s="8"/>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526" s="8"/>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" s="8"/>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" s="8"/>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" s="8"/>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" s="8"/>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" s="8"/>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" s="8"/>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533" s="8"/>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534" s="8"/>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535" s="8"/>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536" s="8"/>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537" s="8"/>
+    </row>
+    <row r="538" spans="3:3">
+      <c r="C538" s="8"/>
+    </row>
+    <row r="539" spans="3:3">
+      <c r="C539" s="8"/>
+    </row>
+    <row r="540" spans="3:3">
+      <c r="C540" s="8"/>
+    </row>
+    <row r="541" spans="3:3">
+      <c r="C541" s="8"/>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542" s="8"/>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543" s="8"/>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544" s="8"/>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545" s="8"/>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546" s="8"/>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" s="8"/>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548" s="8"/>
+    </row>
+    <row r="549" spans="3:3">
+      <c r="C549" s="8"/>
+    </row>
+    <row r="550" spans="3:3">
+      <c r="C550" s="8"/>
+    </row>
+    <row r="551" spans="3:3">
+      <c r="C551" s="8"/>
+    </row>
+    <row r="552" spans="3:3">
+      <c r="C552" s="8"/>
+    </row>
+    <row r="553" spans="3:3">
+      <c r="C553" s="8"/>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554" s="8"/>
+    </row>
+    <row r="555" spans="3:3">
+      <c r="C555" s="8"/>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556" s="8"/>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557" s="8"/>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558" s="8"/>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559" s="8"/>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560" s="8"/>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561" s="8"/>
+    </row>
+    <row r="562" spans="3:3">
+      <c r="C562" s="8"/>
+    </row>
+    <row r="563" spans="3:3">
+      <c r="C563" s="8"/>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564" s="8"/>
+    </row>
+    <row r="565" spans="3:3">
+      <c r="C565" s="8"/>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566" s="8"/>
+    </row>
+    <row r="567" spans="3:3">
+      <c r="C567" s="8"/>
+    </row>
+    <row r="568" spans="3:3">
+      <c r="C568" s="8"/>
+    </row>
+    <row r="569" spans="3:3">
+      <c r="C569" s="8"/>
+    </row>
+    <row r="570" spans="3:3">
+      <c r="C570" s="8"/>
+    </row>
+    <row r="571" spans="3:3">
+      <c r="C571" s="8"/>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572" s="8"/>
+    </row>
+    <row r="573" spans="3:3">
+      <c r="C573" s="8"/>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574" s="8"/>
+    </row>
+    <row r="575" spans="3:3">
+      <c r="C575" s="8"/>
+    </row>
+    <row r="576" spans="3:3">
+      <c r="C576" s="8"/>
+    </row>
+    <row r="577" spans="3:3">
+      <c r="C577" s="8"/>
+    </row>
+    <row r="578" spans="3:3">
+      <c r="C578" s="8"/>
+    </row>
+    <row r="579" spans="3:3">
+      <c r="C579" s="8"/>
+    </row>
+    <row r="580" spans="3:3">
+      <c r="C580" s="8"/>
+    </row>
+    <row r="581" spans="3:3">
+      <c r="C581" s="8"/>
+    </row>
+    <row r="582" spans="3:3">
+      <c r="C582" s="8"/>
+    </row>
+    <row r="583" spans="3:3">
+      <c r="C583" s="8"/>
+    </row>
+    <row r="584" spans="3:3">
+      <c r="C584" s="8"/>
+    </row>
+    <row r="585" spans="3:3">
+      <c r="C585" s="8"/>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586" s="8"/>
+    </row>
+    <row r="587" spans="3:3">
+      <c r="C587" s="8"/>
+    </row>
+    <row r="588" spans="3:3">
+      <c r="C588" s="8"/>
+    </row>
+    <row r="589" spans="3:3">
+      <c r="C589" s="8"/>
+    </row>
+    <row r="590" spans="3:3">
+      <c r="C590" s="8"/>
+    </row>
+    <row r="591" spans="3:3">
+      <c r="C591" s="8"/>
+    </row>
+    <row r="592" spans="3:3">
+      <c r="C592" s="8"/>
+    </row>
+    <row r="593" spans="3:3">
+      <c r="C593" s="8"/>
+    </row>
+    <row r="594" spans="3:3">
+      <c r="C594" s="8"/>
+    </row>
+    <row r="595" spans="3:3">
+      <c r="C595" s="8"/>
+    </row>
+    <row r="596" spans="3:3">
+      <c r="C596" s="8"/>
+    </row>
+    <row r="597" spans="3:3">
+      <c r="C597" s="8"/>
+    </row>
+    <row r="598" spans="3:3">
+      <c r="C598" s="8"/>
+    </row>
+    <row r="599" spans="3:3">
+      <c r="C599" s="8"/>
+    </row>
+    <row r="600" spans="3:3">
+      <c r="C600" s="8"/>
+    </row>
+    <row r="601" spans="3:3">
+      <c r="C601" s="8"/>
+    </row>
+    <row r="602" spans="3:3">
+      <c r="C602" s="8"/>
+    </row>
+    <row r="603" spans="3:3">
+      <c r="C603" s="8"/>
+    </row>
+    <row r="604" spans="3:3">
+      <c r="C604" s="8"/>
+    </row>
+    <row r="605" spans="3:3">
+      <c r="C605" s="8"/>
+    </row>
+    <row r="606" spans="3:3">
+      <c r="C606" s="8"/>
+    </row>
+    <row r="607" spans="3:3">
+      <c r="C607" s="8"/>
+    </row>
+    <row r="608" spans="3:3">
+      <c r="C608" s="8"/>
+    </row>
+    <row r="609" spans="3:3">
+      <c r="C609" s="8"/>
+    </row>
+    <row r="610" spans="3:3">
+      <c r="C610" s="8"/>
+    </row>
+    <row r="611" spans="3:3">
+      <c r="C611" s="8"/>
+    </row>
+    <row r="612" spans="3:3">
+      <c r="C612" s="8"/>
+    </row>
+    <row r="613" spans="3:3">
+      <c r="C613" s="8"/>
+    </row>
+    <row r="614" spans="3:3">
+      <c r="C614" s="8"/>
+    </row>
+    <row r="615" spans="3:3">
+      <c r="C615" s="8"/>
+    </row>
+    <row r="616" spans="3:3">
+      <c r="C616" s="8"/>
+    </row>
+    <row r="617" spans="3:3">
+      <c r="C617" s="8"/>
+    </row>
+    <row r="618" spans="3:3">
+      <c r="C618" s="8"/>
+    </row>
+    <row r="619" spans="3:3">
+      <c r="C619" s="8"/>
+    </row>
+    <row r="620" spans="3:3">
+      <c r="C620" s="8"/>
+    </row>
+    <row r="621" spans="3:3">
+      <c r="C621" s="8"/>
+    </row>
+    <row r="622" spans="3:3">
+      <c r="C622" s="8"/>
+    </row>
+    <row r="623" spans="3:3">
+      <c r="C623" s="8"/>
+    </row>
+    <row r="624" spans="3:3">
+      <c r="C624" s="8"/>
+    </row>
+    <row r="625" spans="3:3">
+      <c r="C625" s="8"/>
+    </row>
+    <row r="626" spans="3:3">
+      <c r="C626" s="8"/>
+    </row>
+    <row r="627" spans="3:3">
+      <c r="C627" s="8"/>
+    </row>
+    <row r="628" spans="3:3">
+      <c r="C628" s="8"/>
+    </row>
+    <row r="629" spans="3:3">
+      <c r="C629" s="8"/>
+    </row>
+    <row r="630" spans="3:3">
+      <c r="C630" s="8"/>
+    </row>
+    <row r="631" spans="3:3">
+      <c r="C631" s="8"/>
+    </row>
+    <row r="632" spans="3:3">
+      <c r="C632" s="8"/>
+    </row>
+    <row r="633" spans="3:3">
+      <c r="C633" s="8"/>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634" s="8"/>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635" s="8"/>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636" s="8"/>
+    </row>
+    <row r="637" spans="3:3">
+      <c r="C637" s="8"/>
+    </row>
+    <row r="638" spans="3:3">
+      <c r="C638" s="8"/>
+    </row>
+    <row r="639" spans="3:3">
+      <c r="C639" s="8"/>
+    </row>
+    <row r="640" spans="3:3">
+      <c r="C640" s="8"/>
+    </row>
+    <row r="641" spans="3:3">
+      <c r="C641" s="8"/>
+    </row>
+    <row r="642" spans="3:3">
+      <c r="C642" s="8"/>
+    </row>
+    <row r="643" spans="3:3">
+      <c r="C643" s="8"/>
+    </row>
+    <row r="644" spans="3:3">
+      <c r="C644" s="8"/>
+    </row>
+    <row r="645" spans="3:3">
+      <c r="C645" s="8"/>
+    </row>
+    <row r="646" spans="3:3">
+      <c r="C646" s="8"/>
+    </row>
+    <row r="647" spans="3:3">
+      <c r="C647" s="8"/>
+    </row>
+    <row r="648" spans="3:3">
+      <c r="C648" s="8"/>
+    </row>
+    <row r="649" spans="3:3">
+      <c r="C649" s="8"/>
+    </row>
+    <row r="650" spans="3:3">
+      <c r="C650" s="8"/>
+    </row>
+    <row r="651" spans="3:3">
+      <c r="C651" s="8"/>
+    </row>
+    <row r="652" spans="3:3">
+      <c r="C652" s="8"/>
+    </row>
+    <row r="653" spans="3:3">
+      <c r="C653" s="8"/>
+    </row>
+    <row r="654" spans="3:3">
+      <c r="C654" s="8"/>
+    </row>
+    <row r="655" spans="3:3">
+      <c r="C655" s="8"/>
+    </row>
+    <row r="656" spans="3:3">
+      <c r="C656" s="8"/>
+    </row>
+    <row r="657" spans="3:3">
+      <c r="C657" s="8"/>
+    </row>
+    <row r="658" spans="3:3">
+      <c r="C658" s="8"/>
+    </row>
+    <row r="659" spans="3:3">
+      <c r="C659" s="8"/>
+    </row>
+    <row r="660" spans="3:3">
+      <c r="C660" s="8"/>
+    </row>
+    <row r="661" spans="3:3">
+      <c r="C661" s="8"/>
+    </row>
+    <row r="662" spans="3:3">
+      <c r="C662" s="8"/>
+    </row>
+    <row r="663" spans="3:3">
+      <c r="C663" s="8"/>
+    </row>
+    <row r="664" spans="3:3">
+      <c r="C664" s="8"/>
+    </row>
+    <row r="665" spans="3:3">
+      <c r="C665" s="8"/>
+    </row>
+    <row r="666" spans="3:3">
+      <c r="C666" s="8"/>
+    </row>
+    <row r="667" spans="3:3">
+      <c r="C667" s="8"/>
+    </row>
+    <row r="668" spans="3:3">
+      <c r="C668" s="8"/>
+    </row>
+    <row r="669" spans="3:3">
+      <c r="C669" s="8"/>
+    </row>
+    <row r="670" spans="3:3">
+      <c r="C670" s="8"/>
+    </row>
+    <row r="671" spans="3:3">
+      <c r="C671" s="8"/>
+    </row>
+    <row r="672" spans="3:3">
+      <c r="C672" s="8"/>
+    </row>
+    <row r="673" spans="3:3">
+      <c r="C673" s="8"/>
+    </row>
+    <row r="674" spans="3:3">
+      <c r="C674" s="8"/>
+    </row>
+    <row r="675" spans="3:3">
+      <c r="C675" s="8"/>
+    </row>
+    <row r="676" spans="3:3">
+      <c r="C676" s="8"/>
+    </row>
+    <row r="677" spans="3:3">
+      <c r="C677" s="8"/>
+    </row>
+    <row r="678" spans="3:3">
+      <c r="C678" s="8"/>
+    </row>
+    <row r="679" spans="3:3">
+      <c r="C679" s="8"/>
+    </row>
+    <row r="680" spans="3:3">
+      <c r="C680" s="8"/>
+    </row>
+    <row r="681" spans="3:3">
+      <c r="C681" s="8"/>
+    </row>
+    <row r="682" spans="3:3">
+      <c r="C682" s="8"/>
+    </row>
+    <row r="683" spans="3:3">
+      <c r="C683" s="8"/>
+    </row>
+    <row r="684" spans="3:3">
+      <c r="C684" s="8"/>
+    </row>
+    <row r="685" spans="3:3">
+      <c r="C685" s="8"/>
+    </row>
+    <row r="686" spans="3:3">
+      <c r="C686" s="8"/>
+    </row>
+    <row r="687" spans="3:3">
+      <c r="C687" s="8"/>
+    </row>
+    <row r="688" spans="3:3">
+      <c r="C688" s="8"/>
+    </row>
+    <row r="689" spans="3:3">
+      <c r="C689" s="8"/>
+    </row>
+    <row r="690" spans="3:3">
+      <c r="C690" s="8"/>
+    </row>
+    <row r="691" spans="3:3">
+      <c r="C691" s="8"/>
+    </row>
+    <row r="692" spans="3:3">
+      <c r="C692" s="8"/>
+    </row>
+    <row r="693" spans="3:3">
+      <c r="C693" s="8"/>
+    </row>
+    <row r="694" spans="3:3">
+      <c r="C694" s="8"/>
+    </row>
+    <row r="695" spans="3:3">
+      <c r="C695" s="8"/>
+    </row>
+    <row r="696" spans="3:3">
+      <c r="C696" s="8"/>
+    </row>
+    <row r="697" spans="3:3">
+      <c r="C697" s="8"/>
+    </row>
+    <row r="698" spans="3:3">
+      <c r="C698" s="8"/>
+    </row>
+    <row r="699" spans="3:3">
+      <c r="C699" s="8"/>
+    </row>
+    <row r="700" spans="3:3">
+      <c r="C700" s="8"/>
+    </row>
+    <row r="701" spans="3:3">
+      <c r="C701" s="8"/>
+    </row>
+    <row r="702" spans="3:3">
+      <c r="C702" s="8"/>
+    </row>
+    <row r="703" spans="3:3">
+      <c r="C703" s="8"/>
+    </row>
+    <row r="704" spans="3:3">
+      <c r="C704" s="8"/>
+    </row>
+    <row r="705" spans="3:3">
+      <c r="C705" s="8"/>
+    </row>
+    <row r="706" spans="3:3">
+      <c r="C706" s="8"/>
+    </row>
+    <row r="707" spans="3:3">
+      <c r="C707" s="8"/>
+    </row>
+    <row r="708" spans="3:3">
+      <c r="C708" s="8"/>
+    </row>
+    <row r="709" spans="3:3">
+      <c r="C709" s="8"/>
+    </row>
+    <row r="710" spans="3:3">
+      <c r="C710" s="8"/>
+    </row>
+    <row r="711" spans="3:3">
+      <c r="C711" s="8"/>
+    </row>
+    <row r="712" spans="3:3">
+      <c r="C712" s="8"/>
+    </row>
+    <row r="713" spans="3:3">
+      <c r="C713" s="8"/>
+    </row>
+    <row r="714" spans="3:3">
+      <c r="C714" s="8"/>
+    </row>
+    <row r="715" spans="3:3">
+      <c r="C715" s="8"/>
+    </row>
+    <row r="716" spans="3:3">
+      <c r="C716" s="8"/>
+    </row>
+    <row r="717" spans="3:3">
+      <c r="C717" s="8"/>
+    </row>
+    <row r="718" spans="3:3">
+      <c r="C718" s="8"/>
+    </row>
+    <row r="719" spans="3:3">
+      <c r="C719" s="8"/>
+    </row>
+    <row r="720" spans="3:3">
+      <c r="C720" s="8"/>
+    </row>
+    <row r="721" spans="3:3">
+      <c r="C721" s="8"/>
+    </row>
+    <row r="722" spans="3:3">
+      <c r="C722" s="8"/>
+    </row>
+    <row r="723" spans="3:3">
+      <c r="C723" s="8"/>
+    </row>
+    <row r="724" spans="3:3">
+      <c r="C724" s="8"/>
+    </row>
+    <row r="725" spans="3:3">
+      <c r="C725" s="8"/>
+    </row>
+    <row r="726" spans="3:3">
+      <c r="C726" s="8"/>
+    </row>
+    <row r="727" spans="3:3">
+      <c r="C727" s="8"/>
+    </row>
+    <row r="728" spans="3:3">
+      <c r="C728" s="8"/>
+    </row>
+    <row r="729" spans="3:3">
+      <c r="C729" s="8"/>
+    </row>
+    <row r="730" spans="3:3">
+      <c r="C730" s="8"/>
+    </row>
+    <row r="731" spans="3:3">
+      <c r="C731" s="8"/>
+    </row>
+    <row r="732" spans="3:3">
+      <c r="C732" s="8"/>
+    </row>
+    <row r="733" spans="3:3">
+      <c r="C733" s="8"/>
+    </row>
+    <row r="734" spans="3:3">
+      <c r="C734" s="8"/>
+    </row>
+    <row r="735" spans="3:3">
+      <c r="C735" s="8"/>
+    </row>
+    <row r="736" spans="3:3">
+      <c r="C736" s="8"/>
+    </row>
+    <row r="737" spans="3:3">
+      <c r="C737" s="8"/>
+    </row>
+    <row r="738" spans="3:3">
+      <c r="C738" s="8"/>
+    </row>
+    <row r="739" spans="3:3">
+      <c r="C739" s="8"/>
+    </row>
+    <row r="740" spans="3:3">
+      <c r="C740" s="8"/>
+    </row>
+    <row r="741" spans="3:3">
+      <c r="C741" s="8"/>
+    </row>
+    <row r="742" spans="3:3">
+      <c r="C742" s="8"/>
+    </row>
+    <row r="743" spans="3:3">
+      <c r="C743" s="8"/>
+    </row>
+    <row r="744" spans="3:3">
+      <c r="C744" s="8"/>
+    </row>
+    <row r="745" spans="3:3">
+      <c r="C745" s="8"/>
+    </row>
+    <row r="746" spans="3:3">
+      <c r="C746" s="8"/>
+    </row>
+    <row r="747" spans="3:3">
+      <c r="C747" s="8"/>
+    </row>
+    <row r="748" spans="3:3">
+      <c r="C748" s="8"/>
+    </row>
+    <row r="749" spans="3:3">
+      <c r="C749" s="8"/>
+    </row>
+    <row r="750" spans="3:3">
+      <c r="C750" s="8"/>
+    </row>
+    <row r="751" spans="3:3">
+      <c r="C751" s="8"/>
+    </row>
+    <row r="752" spans="3:3">
+      <c r="C752" s="8"/>
+    </row>
+    <row r="753" spans="3:3">
+      <c r="C753" s="8"/>
+    </row>
+    <row r="754" spans="3:3">
+      <c r="C754" s="8"/>
+    </row>
+    <row r="755" spans="3:3">
+      <c r="C755" s="8"/>
+    </row>
+    <row r="756" spans="3:3">
+      <c r="C756" s="8"/>
+    </row>
+    <row r="757" spans="3:3">
+      <c r="C757" s="8"/>
+    </row>
+    <row r="758" spans="3:3">
+      <c r="C758" s="8"/>
+    </row>
+    <row r="759" spans="3:3">
+      <c r="C759" s="8"/>
+    </row>
+    <row r="760" spans="3:3">
+      <c r="C760" s="8"/>
+    </row>
+    <row r="761" spans="3:3">
+      <c r="C761" s="8"/>
+    </row>
+    <row r="762" spans="3:3">
+      <c r="C762" s="8"/>
+    </row>
+    <row r="763" spans="3:3">
+      <c r="C763" s="8"/>
+    </row>
+    <row r="764" spans="3:3">
+      <c r="C764" s="8"/>
+    </row>
+    <row r="765" spans="3:3">
+      <c r="C765" s="8"/>
+    </row>
+    <row r="766" spans="3:3">
+      <c r="C766" s="8"/>
+    </row>
+    <row r="767" spans="3:3">
+      <c r="C767" s="8"/>
+    </row>
+    <row r="768" spans="3:3">
+      <c r="C768" s="8"/>
+    </row>
+    <row r="769" spans="3:3">
+      <c r="C769" s="8"/>
+    </row>
+    <row r="770" spans="3:3">
+      <c r="C770" s="8"/>
+    </row>
+    <row r="771" spans="3:3">
+      <c r="C771" s="8"/>
+    </row>
+    <row r="772" spans="3:3">
+      <c r="C772" s="8"/>
+    </row>
+    <row r="773" spans="3:3">
+      <c r="C773" s="8"/>
+    </row>
+    <row r="774" spans="3:3">
+      <c r="C774" s="8"/>
+    </row>
+    <row r="775" spans="3:3">
+      <c r="C775" s="8"/>
+    </row>
+    <row r="776" spans="3:3">
+      <c r="C776" s="8"/>
+    </row>
+    <row r="777" spans="3:3">
+      <c r="C777" s="8"/>
+    </row>
+    <row r="778" spans="3:3">
+      <c r="C778" s="8"/>
+    </row>
+    <row r="779" spans="3:3">
+      <c r="C779" s="8"/>
+    </row>
+    <row r="780" spans="3:3">
+      <c r="C780" s="8"/>
+    </row>
+    <row r="781" spans="3:3">
+      <c r="C781" s="8"/>
+    </row>
+    <row r="782" spans="3:3">
+      <c r="C782" s="8"/>
+    </row>
+    <row r="783" spans="3:3">
+      <c r="C783" s="8"/>
+    </row>
+    <row r="784" spans="3:3">
+      <c r="C784" s="8"/>
+    </row>
+    <row r="785" spans="3:3">
+      <c r="C785" s="8"/>
+    </row>
+    <row r="786" spans="3:3">
+      <c r="C786" s="8"/>
+    </row>
+    <row r="787" spans="3:3">
+      <c r="C787" s="8"/>
+    </row>
+    <row r="788" spans="3:3">
+      <c r="C788" s="8"/>
+    </row>
+    <row r="789" spans="3:3">
+      <c r="C789" s="8"/>
+    </row>
+    <row r="790" spans="3:3">
+      <c r="C790" s="8"/>
+    </row>
+    <row r="791" spans="3:3">
+      <c r="C791" s="8"/>
+    </row>
+    <row r="792" spans="3:3">
+      <c r="C792" s="8"/>
+    </row>
+    <row r="793" spans="3:3">
+      <c r="C793" s="8"/>
+    </row>
+    <row r="794" spans="3:3">
+      <c r="C794" s="8"/>
+    </row>
+    <row r="795" spans="3:3">
+      <c r="C795" s="8"/>
+    </row>
+    <row r="796" spans="3:3">
+      <c r="C796" s="8"/>
+    </row>
+    <row r="797" spans="3:3">
+      <c r="C797" s="8"/>
+    </row>
+    <row r="798" spans="3:3">
+      <c r="C798" s="8"/>
+    </row>
+    <row r="799" spans="3:3">
+      <c r="C799" s="8"/>
+    </row>
+    <row r="800" spans="3:3">
+      <c r="C800" s="8"/>
+    </row>
+    <row r="801" spans="3:3">
+      <c r="C801" s="8"/>
+    </row>
+    <row r="802" spans="3:3">
+      <c r="C802" s="8"/>
+    </row>
+    <row r="803" spans="3:3">
+      <c r="C803" s="8"/>
+    </row>
+    <row r="804" spans="3:3">
+      <c r="C804" s="8"/>
+    </row>
+    <row r="805" spans="3:3">
+      <c r="C805" s="8"/>
+    </row>
+    <row r="806" spans="3:3">
+      <c r="C806" s="8"/>
+    </row>
+    <row r="807" spans="3:3">
+      <c r="C807" s="8"/>
+    </row>
+    <row r="808" spans="3:3">
+      <c r="C808" s="8"/>
+    </row>
+    <row r="809" spans="3:3">
+      <c r="C809" s="8"/>
+    </row>
+    <row r="810" spans="3:3">
+      <c r="C810" s="8"/>
+    </row>
+    <row r="811" spans="3:3">
+      <c r="C811" s="8"/>
+    </row>
+    <row r="812" spans="3:3">
+      <c r="C812" s="8"/>
+    </row>
+    <row r="813" spans="3:3">
+      <c r="C813" s="8"/>
+    </row>
+    <row r="814" spans="3:3">
+      <c r="C814" s="8"/>
+    </row>
+    <row r="815" spans="3:3">
+      <c r="C815" s="8"/>
+    </row>
+    <row r="816" spans="3:3">
+      <c r="C816" s="8"/>
+    </row>
+    <row r="817" spans="3:3">
+      <c r="C817" s="8"/>
+    </row>
+    <row r="818" spans="3:3">
+      <c r="C818" s="8"/>
+    </row>
+    <row r="819" spans="3:3">
+      <c r="C819" s="8"/>
+    </row>
+    <row r="820" spans="3:3">
+      <c r="C820" s="8"/>
+    </row>
+    <row r="821" spans="3:3">
+      <c r="C821" s="8"/>
+    </row>
+    <row r="822" spans="3:3">
+      <c r="C822" s="8"/>
+    </row>
+    <row r="823" spans="3:3">
+      <c r="C823" s="8"/>
+    </row>
+    <row r="824" spans="3:3">
+      <c r="C824" s="8"/>
+    </row>
+    <row r="825" spans="3:3">
+      <c r="C825" s="8"/>
+    </row>
+    <row r="826" spans="3:3">
+      <c r="C826" s="8"/>
+    </row>
+    <row r="827" spans="3:3">
+      <c r="C827" s="8"/>
+    </row>
+    <row r="828" spans="3:3">
+      <c r="C828" s="8"/>
+    </row>
+    <row r="829" spans="3:3">
+      <c r="C829" s="8"/>
+    </row>
+    <row r="830" spans="3:3">
+      <c r="C830" s="8"/>
+    </row>
+    <row r="831" spans="3:3">
+      <c r="C831" s="8"/>
+    </row>
+    <row r="832" spans="3:3">
+      <c r="C832" s="8"/>
+    </row>
+    <row r="833" spans="3:3">
+      <c r="C833" s="8"/>
+    </row>
+    <row r="834" spans="3:3">
+      <c r="C834" s="8"/>
+    </row>
+    <row r="835" spans="3:3">
+      <c r="C835" s="8"/>
+    </row>
+    <row r="836" spans="3:3">
+      <c r="C836" s="8"/>
+    </row>
+    <row r="837" spans="3:3">
+      <c r="C837" s="8"/>
+    </row>
+    <row r="838" spans="3:3">
+      <c r="C838" s="8"/>
+    </row>
+    <row r="839" spans="3:3">
+      <c r="C839" s="8"/>
+    </row>
+    <row r="840" spans="3:3">
+      <c r="C840" s="8"/>
+    </row>
+    <row r="841" spans="3:3">
+      <c r="C841" s="8"/>
+    </row>
+    <row r="842" spans="3:3">
+      <c r="C842" s="8"/>
+    </row>
+    <row r="843" spans="3:3">
+      <c r="C843" s="8"/>
+    </row>
+    <row r="844" spans="3:3">
+      <c r="C844" s="8"/>
+    </row>
+    <row r="845" spans="3:3">
+      <c r="C845" s="8"/>
+    </row>
+    <row r="846" spans="3:3">
+      <c r="C846" s="8"/>
+    </row>
+    <row r="847" spans="3:3">
+      <c r="C847" s="8"/>
+    </row>
+    <row r="848" spans="3:3">
+      <c r="C848" s="8"/>
+    </row>
+    <row r="849" spans="3:3">
+      <c r="C849" s="8"/>
+    </row>
+    <row r="850" spans="3:3">
+      <c r="C850" s="8"/>
+    </row>
+    <row r="851" spans="3:3">
+      <c r="C851" s="8"/>
+    </row>
+    <row r="852" spans="3:3">
+      <c r="C852" s="8"/>
+    </row>
+    <row r="853" spans="3:3">
+      <c r="C853" s="8"/>
+    </row>
+    <row r="854" spans="3:3">
+      <c r="C854" s="8"/>
+    </row>
+    <row r="855" spans="3:3">
+      <c r="C855" s="8"/>
+    </row>
+    <row r="856" spans="3:3">
+      <c r="C856" s="8"/>
+    </row>
+    <row r="857" spans="3:3">
+      <c r="C857" s="8"/>
+    </row>
+    <row r="858" spans="3:3">
+      <c r="C858" s="8"/>
+    </row>
+    <row r="859" spans="3:3">
+      <c r="C859" s="8"/>
+    </row>
+    <row r="860" spans="3:3">
+      <c r="C860" s="8"/>
+    </row>
+    <row r="861" spans="3:3">
+      <c r="C861" s="8"/>
+    </row>
+    <row r="862" spans="3:3">
+      <c r="C862" s="8"/>
+    </row>
+    <row r="863" spans="3:3">
+      <c r="C863" s="8"/>
+    </row>
+    <row r="864" spans="3:3">
+      <c r="C864" s="8"/>
+    </row>
+    <row r="865" spans="3:3">
+      <c r="C865" s="8"/>
+    </row>
+    <row r="866" spans="3:3">
+      <c r="C866" s="8"/>
+    </row>
+    <row r="867" spans="3:3">
+      <c r="C867" s="8"/>
+    </row>
+    <row r="868" spans="3:3">
+      <c r="C868" s="8"/>
+    </row>
+    <row r="869" spans="3:3">
+      <c r="C869" s="8"/>
+    </row>
+    <row r="870" spans="3:3">
+      <c r="C870" s="8"/>
+    </row>
+    <row r="871" spans="3:3">
+      <c r="C871" s="8"/>
+    </row>
+    <row r="872" spans="3:3">
+      <c r="C872" s="8"/>
+    </row>
+    <row r="873" spans="3:3">
+      <c r="C873" s="8"/>
+    </row>
+    <row r="874" spans="3:3">
+      <c r="C874" s="8"/>
+    </row>
+    <row r="875" spans="3:3">
+      <c r="C875" s="8"/>
+    </row>
+    <row r="876" spans="3:3">
+      <c r="C876" s="8"/>
+    </row>
+    <row r="877" spans="3:3">
+      <c r="C877" s="8"/>
+    </row>
+    <row r="878" spans="3:3">
+      <c r="C878" s="8"/>
+    </row>
+    <row r="879" spans="3:3">
+      <c r="C879" s="8"/>
+    </row>
+    <row r="880" spans="3:3">
+      <c r="C880" s="8"/>
+    </row>
+    <row r="881" spans="3:3">
+      <c r="C881" s="8"/>
+    </row>
+    <row r="882" spans="3:3">
+      <c r="C882" s="8"/>
+    </row>
+    <row r="883" spans="3:3">
+      <c r="C883" s="8"/>
+    </row>
+    <row r="884" spans="3:3">
+      <c r="C884" s="8"/>
+    </row>
+    <row r="885" spans="3:3">
+      <c r="C885" s="8"/>
+    </row>
+    <row r="886" spans="3:3">
+      <c r="C886" s="8"/>
+    </row>
+    <row r="887" spans="3:3">
+      <c r="C887" s="8"/>
+    </row>
+    <row r="888" spans="3:3">
+      <c r="C888" s="8"/>
+    </row>
+    <row r="889" spans="3:3">
+      <c r="C889" s="8"/>
+    </row>
+    <row r="890" spans="3:3">
+      <c r="C890" s="8"/>
+    </row>
+    <row r="891" spans="3:3">
+      <c r="C891" s="8"/>
+    </row>
+    <row r="892" spans="3:3">
+      <c r="C892" s="8"/>
+    </row>
+    <row r="893" spans="3:3">
+      <c r="C893" s="8"/>
+    </row>
+    <row r="894" spans="3:3">
+      <c r="C894" s="8"/>
+    </row>
+    <row r="895" spans="3:3">
+      <c r="C895" s="8"/>
+    </row>
+    <row r="896" spans="3:3">
+      <c r="C896" s="8"/>
+    </row>
+    <row r="897" spans="3:3">
+      <c r="C897" s="8"/>
+    </row>
+    <row r="898" spans="3:3">
+      <c r="C898" s="8"/>
+    </row>
+    <row r="899" spans="3:3">
+      <c r="C899" s="8"/>
+    </row>
+    <row r="900" spans="3:3">
+      <c r="C900" s="8"/>
+    </row>
+    <row r="901" spans="3:3">
+      <c r="C901" s="8"/>
+    </row>
+    <row r="902" spans="3:3">
+      <c r="C902" s="8"/>
+    </row>
+    <row r="903" spans="3:3">
+      <c r="C903" s="8"/>
+    </row>
+    <row r="904" spans="3:3">
+      <c r="C904" s="8"/>
+    </row>
+    <row r="905" spans="3:3">
+      <c r="C905" s="8"/>
+    </row>
+    <row r="906" spans="3:3">
+      <c r="C906" s="8"/>
+    </row>
+    <row r="907" spans="3:3">
+      <c r="C907" s="8"/>
+    </row>
+    <row r="908" spans="3:3">
+      <c r="C908" s="8"/>
+    </row>
+    <row r="909" spans="3:3">
+      <c r="C909" s="8"/>
+    </row>
+    <row r="910" spans="3:3">
+      <c r="C910" s="8"/>
+    </row>
+    <row r="911" spans="3:3">
+      <c r="C911" s="8"/>
+    </row>
+    <row r="912" spans="3:3">
+      <c r="C912" s="8"/>
+    </row>
+    <row r="913" spans="3:3">
+      <c r="C913" s="8"/>
+    </row>
+    <row r="914" spans="3:3">
+      <c r="C914" s="8"/>
+    </row>
+    <row r="915" spans="3:3">
+      <c r="C915" s="8"/>
+    </row>
+    <row r="916" spans="3:3">
+      <c r="C916" s="8"/>
+    </row>
+    <row r="917" spans="3:3">
+      <c r="C917" s="8"/>
+    </row>
+    <row r="918" spans="3:3">
+      <c r="C918" s="8"/>
+    </row>
+    <row r="919" spans="3:3">
+      <c r="C919" s="8"/>
+    </row>
+    <row r="920" spans="3:3">
+      <c r="C920" s="8"/>
+    </row>
+    <row r="921" spans="3:3">
+      <c r="C921" s="8"/>
+    </row>
+    <row r="922" spans="3:3">
+      <c r="C922" s="8"/>
+    </row>
+    <row r="923" spans="3:3">
+      <c r="C923" s="8"/>
+    </row>
+    <row r="924" spans="3:3">
+      <c r="C924" s="8"/>
+    </row>
+    <row r="925" spans="3:3">
+      <c r="C925" s="8"/>
+    </row>
+    <row r="926" spans="3:3">
+      <c r="C926" s="8"/>
+    </row>
+    <row r="927" spans="3:3">
+      <c r="C927" s="8"/>
+    </row>
+    <row r="928" spans="3:3">
+      <c r="C928" s="8"/>
+    </row>
+    <row r="929" spans="3:3">
+      <c r="C929" s="8"/>
+    </row>
+    <row r="930" spans="3:3">
+      <c r="C930" s="8"/>
+    </row>
+    <row r="931" spans="3:3">
+      <c r="C931" s="8"/>
+    </row>
+    <row r="932" spans="3:3">
+      <c r="C932" s="8"/>
+    </row>
+    <row r="933" spans="3:3">
+      <c r="C933" s="8"/>
+    </row>
+    <row r="934" spans="3:3">
+      <c r="C934" s="8"/>
+    </row>
+    <row r="935" spans="3:3">
+      <c r="C935" s="8"/>
+    </row>
+    <row r="936" spans="3:3">
+      <c r="C936" s="8"/>
+    </row>
+    <row r="937" spans="3:3">
+      <c r="C937" s="8"/>
+    </row>
+    <row r="938" spans="3:3">
+      <c r="C938" s="8"/>
+    </row>
+    <row r="939" spans="3:3">
+      <c r="C939" s="8"/>
+    </row>
+    <row r="940" spans="3:3">
+      <c r="C940" s="8"/>
+    </row>
+    <row r="941" spans="3:3">
+      <c r="C941" s="8"/>
+    </row>
+    <row r="942" spans="3:3">
+      <c r="C942" s="8"/>
+    </row>
+    <row r="943" spans="3:3">
+      <c r="C943" s="8"/>
+    </row>
+    <row r="944" spans="3:3">
+      <c r="C944" s="8"/>
+    </row>
+    <row r="945" spans="3:3">
+      <c r="C945" s="8"/>
+    </row>
+    <row r="946" spans="3:3">
+      <c r="C946" s="8"/>
+    </row>
+    <row r="947" spans="3:3">
+      <c r="C947" s="8"/>
+    </row>
+    <row r="948" spans="3:3">
+      <c r="C948" s="8"/>
+    </row>
+    <row r="949" spans="3:3">
+      <c r="C949" s="8"/>
+    </row>
+    <row r="950" spans="3:3">
+      <c r="C950" s="8"/>
+    </row>
+    <row r="951" spans="3:3">
+      <c r="C951" s="8"/>
+    </row>
+    <row r="952" spans="3:3">
+      <c r="C952" s="8"/>
+    </row>
+    <row r="953" spans="3:3">
+      <c r="C953" s="8"/>
+    </row>
+    <row r="954" spans="3:3">
+      <c r="C954" s="8"/>
+    </row>
+    <row r="955" spans="3:3">
+      <c r="C955" s="8"/>
+    </row>
+    <row r="956" spans="3:3">
+      <c r="C956" s="8"/>
+    </row>
+    <row r="957" spans="3:3">
+      <c r="C957" s="8"/>
+    </row>
+    <row r="958" spans="3:3">
+      <c r="C958" s="8"/>
+    </row>
+    <row r="959" spans="3:3">
+      <c r="C959" s="8"/>
+    </row>
+    <row r="960" spans="3:3">
+      <c r="C960" s="8"/>
+    </row>
+    <row r="961" spans="3:3">
+      <c r="C961" s="8"/>
+    </row>
+    <row r="962" spans="3:3">
+      <c r="C962" s="8"/>
+    </row>
+    <row r="963" spans="3:3">
+      <c r="C963" s="8"/>
+    </row>
+    <row r="964" spans="3:3">
+      <c r="C964" s="8"/>
+    </row>
+    <row r="965" spans="3:3">
+      <c r="C965" s="8"/>
+    </row>
+    <row r="966" spans="3:3">
+      <c r="C966" s="8"/>
+    </row>
+    <row r="967" spans="3:3">
+      <c r="C967" s="8"/>
+    </row>
+    <row r="968" spans="3:3">
+      <c r="C968" s="8"/>
+    </row>
+    <row r="969" spans="3:3">
+      <c r="C969" s="8"/>
+    </row>
+    <row r="970" spans="3:3">
+      <c r="C970" s="8"/>
+    </row>
+    <row r="971" spans="3:3">
+      <c r="C971" s="8"/>
+    </row>
+    <row r="972" spans="3:3">
+      <c r="C972" s="8"/>
+    </row>
+    <row r="973" spans="3:3">
+      <c r="C973" s="8"/>
+    </row>
+    <row r="974" spans="3:3">
+      <c r="C974" s="8"/>
+    </row>
+    <row r="975" spans="3:3">
+      <c r="C975" s="8"/>
+    </row>
+    <row r="976" spans="3:3">
+      <c r="C976" s="8"/>
+    </row>
+    <row r="977" spans="3:3">
+      <c r="C977" s="8"/>
+    </row>
+    <row r="978" spans="3:3">
+      <c r="C978" s="8"/>
+    </row>
+    <row r="979" spans="3:3">
+      <c r="C979" s="8"/>
+    </row>
+    <row r="980" spans="3:3">
+      <c r="C980" s="8"/>
+    </row>
+    <row r="981" spans="3:3">
+      <c r="C981" s="8"/>
+    </row>
+    <row r="982" spans="3:3">
+      <c r="C982" s="8"/>
+    </row>
+    <row r="983" spans="3:3">
+      <c r="C983" s="8"/>
+    </row>
+    <row r="984" spans="3:3">
+      <c r="C984" s="8"/>
+    </row>
+    <row r="985" spans="3:3">
+      <c r="C985" s="8"/>
+    </row>
+    <row r="986" spans="3:3">
+      <c r="C986" s="8"/>
+    </row>
+    <row r="987" spans="3:3">
+      <c r="C987" s="8"/>
+    </row>
+    <row r="988" spans="3:3">
+      <c r="C988" s="8"/>
+    </row>
+    <row r="989" spans="3:3">
+      <c r="C989" s="8"/>
+    </row>
+    <row r="990" spans="3:3">
+      <c r="C990" s="8"/>
+    </row>
+    <row r="991" spans="3:3">
+      <c r="C991" s="8"/>
+    </row>
+    <row r="992" spans="3:3">
+      <c r="C992" s="8"/>
+    </row>
+    <row r="993" spans="3:3">
+      <c r="C993" s="8"/>
+    </row>
+    <row r="994" spans="3:3">
+      <c r="C994" s="8"/>
+    </row>
+    <row r="995" spans="3:3">
+      <c r="C995" s="8"/>
+    </row>
+    <row r="996" spans="3:3">
+      <c r="C996" s="8"/>
+    </row>
+    <row r="997" spans="3:3">
+      <c r="C997" s="8"/>
+    </row>
+    <row r="998" spans="3:3">
+      <c r="C998" s="8"/>
+    </row>
+    <row r="999" spans="3:3">
+      <c r="C999" s="8"/>
+    </row>
+    <row r="1000" spans="3:3">
+      <c r="C1000" s="8"/>
+    </row>
+    <row r="1001" spans="3:3">
+      <c r="C1001" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Emily 班每日一题.xlsx
+++ b/Emily 班每日一题.xlsx
@@ -979,55 +979,808 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>难度星级</t>
+  </si>
+  <si>
     <t>请以自己的理解简述混淆矩阵的作用？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>混淆矩阵的行列分别表示什么含义？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>假设样本总数为20000，模型的真正例，真负例，假正例，假负例的数量分别为10000,2000,6000,2000，请计算该模型的预测准确率。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设样本总数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，模型的真正例，真负例，假正例，假负例的数量分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>10000,2000,6000,2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请计算该模型的预测准确率。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已知样本总数，真正例，真负例，假正例，假负例数量的情况下，请写出计算模型准确率的表达式。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请写出从sklearn中导入逻辑回归文件包的语句。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中导入准确率得分的语句。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请写出：利用sklearn的accuracy_score计算模型准确率的代码语句。（真实值Y_True, 预测值Y_Pred）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请写出：利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>accuracy_score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算模型准确率的代码语句。（真实值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y_True, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y_Pred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>混淆矩阵适用于监督学习，半监督学习还是无监督学习？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>准确率是一种绝对好的衡量模型性能的指标么？为什么？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请以自己的理解，解释真正例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请以自己的理解，解释真正例的含义。（假设预测值和实际值均只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两种，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请以自己的理解，解释真负例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请以自己的理解，解释真负例的含义。（假设预测值和实际值均只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两种，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请以自己的理解，解释假正例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请以自己的理解，解释假正例的含义。（假设预测值和实际值均只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两种，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请以自己的理解，解释假负例的含义。（假设预测值和实际值均只有0和1两种，1为True，0为False）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请以自己的理解，解释假负例的含义。（假设预测值和实际值均只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两种，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>模型的准确率高时，对应的真正例，真负例，假正例，假负例中，哪几种数据应当占总数比例高？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据自己所掌握的知识，除准确率外，至少列举一种能够衡量模型性能的指标。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实际情况下误差不可避免，那么产生假正例一定会比假负例好么？如果不是，请举例说明。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>假设样本总数为20000，模型的真负例，假正例，假负例的数量分别为2000,6000,2000，请计算该模型的召回率。（真正例/（真正例+假负例））</t>
-  </si>
-  <si>
-    <t>难度星级</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设样本总数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，模型的真负例，假正例，假负例的数量分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2000,6000,2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请计算该模型的召回率。（真正例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（真正例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假负例））</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,7 +1913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1186,6 +1939,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1729,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1746,59 +2502,59 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60">
+    <row r="4" spans="1:3" ht="58.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="42.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1809,117 +2565,117 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="28.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="28.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="44.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45">
+    <row r="11" spans="1:3" ht="44.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="44.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
+    <row r="13" spans="1:3" ht="44.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="42.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45">
+    <row r="15" spans="1:3" ht="42.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>38</v>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="42.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75">
+    <row r="17" spans="1:3" ht="73.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8">
         <v>3</v>

--- a/Emily 班每日一题.xlsx
+++ b/Emily 班每日一题.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0808" sheetId="1" r:id="rId1"/>
     <sheet name="0809" sheetId="2" r:id="rId2"/>
+    <sheet name="0810" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>17*</t>
   </si>
@@ -1825,12 +1826,125 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TP = 10000
+TN = 2000
+FP = 6000
+FN = 2000
+precision = TP / (TP + FP) = 10000 /  (10000 + 2000) = 83.33%
+recall = TP /  (TP + FN)  = 10000 /  (10000 + 2000) = 83.33%”
+- - - - - - - - - - - - - - -
+你计算的precision和recall都正确，但是题目说的是求预测准确率，
+=(TP+FN)/All = （10000+2000）/20000=60%@3-邵柏强 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">应该是实际为0，预测为1，假正是判断为正，但实际为负@11-赵耀 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>混淆矩阵是一种特定的矩阵，用来可视化地呈现算法性能。不仅仅可以用来计算准确度，从混淆矩阵可延伸出许多很多评价指标，比如查准率，召回率等@1-吴佼玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F1得分(求精度和召回率)，ROC曲线下面积(求真正和假正率)，R2得分(平均绝对误差，平均平方误差)
+good，但R2得分这里描述不太准确，可以看下r2的计算公式
+https://zh.wikipedia.org/wiki/%E5%86%B3%E5%AE%9A%E7%B3%BB%E6%95%B0
+@14-胡艺泽 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">假正例并不是一定好于假负性，比如我们预测对药物的应答，假正例过多，会导致服用不必要的药物。”
+- - - - - - - - - - - - - - -
+这个题首先要给出正负样本，什么是正，什么是负。例如，若邮件为垃圾邮件为正样本，为重要邮件是负样本。如果垃圾邮件不小心进入收件箱，比重要邮件被直接删除进垃圾箱情况要好一些，第一种是假负例，第二种是假正例。@15-张蓓 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不是，准确率虽然能够表明模型预测的结果是正确的比例，但对于类似信用卡欺诈案件的预测，目标是预测出哪些是欺诈行为，仅看准确率无法将有欺诈行为的案件标出，另外，综合使用其他指标可以更好的评价模型性能，比如，精度、召回率、F1得分等。”
+- - - - - - - - - - - - - - -
+对的，对于如果数据集不平衡（每一类的数据样本数量相差太大），很可能会出现误导性的结果。@8-LunjiaZhou </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>请以自己的理解，解释召回率的作用。</t>
+  </si>
+  <si>
+    <t>精度和召回率有什么样的关系？</t>
+  </si>
+  <si>
+    <t>假设样本总数为20000，模型的真正例，真负例，假正例，假负例的数量分别为10000,1000,3000,6000，请计算该模型的召回率。</t>
+  </si>
+  <si>
+    <t>已知样本总数，真正例，真负例，假正例，假负例数量的情况下，请写出计算模型召回率的表达式。</t>
+  </si>
+  <si>
+    <t>假设样本总数为20000，模型的真正例，真负例，假正例，假负例的数量分别为10000,2000,6000,2000，请计算该模型的精度。</t>
+  </si>
+  <si>
+    <t>已知样本总数，真正例，真负例，假正例，假负例数量的情况下，请写出计算模型精度的表达式。</t>
+  </si>
+  <si>
+    <t>请以自己的理解解释：F1得分是什么？为什么需要F1得分？</t>
+  </si>
+  <si>
+    <t>假设模型的召回率是57%，精度是83%，请计算该模型的F1得分。</t>
+  </si>
+  <si>
+    <t>假设模型的召回率是80%，精度是53%，试着估测一下，F1得分会更接近于召回率还是精度？</t>
+  </si>
+  <si>
+    <t>F-β得分，β的取值范围是多少？在取最小值时，计算结果对应召回率还是精度？</t>
+  </si>
+  <si>
+    <t>F-β得分的区间是什么？与F1得分有什么关系？</t>
+  </si>
+  <si>
+    <t>对于F-β得分，β=1是对应着召回率和精度的调和平均数，若是β逐渐增大，则得分会逐渐偏向于召回率还是精度？</t>
+  </si>
+  <si>
+    <t>完美拆分的ROC曲线下方的面积是多少？</t>
+  </si>
+  <si>
+    <t>ROC分析的输出结果可以将数据分成几种类别？</t>
+  </si>
+  <si>
+    <t>定义一个分类器classifier，现要求基于数据集X进行预测，请写出该条代码。</t>
+  </si>
+  <si>
+    <t>一组数据真实值为y，模型的预测值为pred，若采用均方根误差作为模型性能的衡量指标，请写出该条代码。</t>
+  </si>
+  <si>
+    <r>
+      <t>R^2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>决定系数的意义</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1892,13 +2006,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1913,7 +2040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1942,6 +2069,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2225,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2483,18 +2619,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1001"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2504,8 +2641,11 @@
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.5">
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2515,8 +2655,11 @@
       <c r="C2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2527,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="58.5">
+    <row r="4" spans="1:4" ht="228">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2537,8 +2680,11 @@
       <c r="C4" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.75">
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2548,8 +2694,9 @@
       <c r="C5" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2560,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2570,8 +2717,9 @@
       <c r="C7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2582,7 +2730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5">
+    <row r="9" spans="1:4" ht="142.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2592,8 +2740,11 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="44.25">
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2603,8 +2754,11 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="44.25">
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="44.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2614,8 +2768,11 @@
       <c r="C11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="44.25">
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="44.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2625,8 +2782,11 @@
       <c r="C12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="44.25">
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="44.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2636,8 +2796,9 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="42.75">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="42.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2647,8 +2808,9 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="42.75">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="114">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2658,8 +2820,11 @@
       <c r="C15" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="42.75">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="142.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2669,8 +2834,11 @@
       <c r="C16" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="73.5">
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="73.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2681,7 +2849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="44.25">
+    <row r="18" spans="1:4" ht="44.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2691,47 +2859,48 @@
       <c r="C18" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="3:3">
@@ -5640,6 +5809,3933 @@
     </row>
     <row r="1001" spans="3:3">
       <c r="C1001" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="75">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="60">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="225">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" ht="180">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="225">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="165">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="105">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="135">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="180">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="150">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="90">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="195">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="75">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="90">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="135">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="180">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="9"/>
+      <c r="Q166" s="9"/>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="9"/>
+      <c r="Q167" s="9"/>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
+      <c r="Q169" s="9"/>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="9"/>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="9"/>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="9"/>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="9"/>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="9"/>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9"/>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="9"/>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9"/>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+      <c r="M185" s="9"/>
+      <c r="N185" s="9"/>
+      <c r="O185" s="9"/>
+      <c r="P185" s="9"/>
+      <c r="Q185" s="9"/>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="9"/>
+      <c r="O186" s="9"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="9"/>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="9"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="9"/>
+      <c r="Q187" s="9"/>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+      <c r="O188" s="9"/>
+      <c r="P188" s="9"/>
+      <c r="Q188" s="9"/>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9"/>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="9"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9"/>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="9"/>
+      <c r="O191" s="9"/>
+      <c r="P191" s="9"/>
+      <c r="Q191" s="9"/>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="9"/>
+      <c r="M192" s="9"/>
+      <c r="N192" s="9"/>
+      <c r="O192" s="9"/>
+      <c r="P192" s="9"/>
+      <c r="Q192" s="9"/>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="9"/>
+      <c r="N193" s="9"/>
+      <c r="O193" s="9"/>
+      <c r="P193" s="9"/>
+      <c r="Q193" s="9"/>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="9"/>
+      <c r="O194" s="9"/>
+      <c r="P194" s="9"/>
+      <c r="Q194" s="9"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="9"/>
+      <c r="O195" s="9"/>
+      <c r="P195" s="9"/>
+      <c r="Q195" s="9"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="9"/>
+      <c r="Q196" s="9"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="9"/>
+      <c r="Q197" s="9"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="9"/>
+      <c r="O198" s="9"/>
+      <c r="P198" s="9"/>
+      <c r="Q198" s="9"/>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="9"/>
+      <c r="N199" s="9"/>
+      <c r="O199" s="9"/>
+      <c r="P199" s="9"/>
+      <c r="Q199" s="9"/>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Emily 班每日一题.xlsx
+++ b/Emily 班每日一题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0808" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>17*</t>
   </si>
@@ -1937,6 +1937,10 @@
       </rPr>
       <t>决定系数的意义</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2621,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2670,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="228">
+    <row r="4" spans="1:4" ht="199.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2694,7 +2698,9 @@
       <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="29.25">
       <c r="A6" s="1">
@@ -2808,7 +2814,9 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="114">
       <c r="A15" s="1">
@@ -5820,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5854,7 +5862,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="75">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5879,7 +5887,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="60">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -5904,7 +5912,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="225">
+    <row r="4" spans="1:17" ht="75">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -5929,7 +5937,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="180">
+    <row r="5" spans="1:17" ht="60">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -5954,7 +5962,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="225">
+    <row r="6" spans="1:17" ht="75">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -5979,7 +5987,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="165">
+    <row r="7" spans="1:17" ht="60">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -6004,7 +6012,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="105">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -6029,7 +6037,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="135">
+    <row r="9" spans="1:17" ht="45">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -6054,7 +6062,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="180">
+    <row r="10" spans="1:17" ht="60">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -6079,7 +6087,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="150">
+    <row r="11" spans="1:17" ht="45">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -6104,7 +6112,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="90">
+    <row r="12" spans="1:17" ht="30">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -6129,7 +6137,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="195">
+    <row r="13" spans="1:17" ht="60">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -6154,7 +6162,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="75">
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -6179,7 +6187,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="90">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -6204,7 +6212,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="135">
+    <row r="16" spans="1:17" ht="45">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -6229,7 +6237,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="180">
+    <row r="17" spans="1:17" ht="60">
       <c r="A17" s="12">
         <v>16</v>
       </c>

--- a/Emily 班每日一题.xlsx
+++ b/Emily 班每日一题.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0808" sheetId="1" r:id="rId1"/>
     <sheet name="0809" sheetId="2" r:id="rId2"/>
     <sheet name="0810" sheetId="3" r:id="rId3"/>
+    <sheet name="0811" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>17*</t>
   </si>
@@ -1918,9 +1919,6 @@
     <t>ROC分析的输出结果可以将数据分成几种类别？</t>
   </si>
   <si>
-    <t>定义一个分类器classifier，现要求基于数据集X进行预测，请写出该条代码。</t>
-  </si>
-  <si>
     <t>一组数据真实值为y，模型的预测值为pred，若采用均方根误差作为模型性能的衡量指标，请写出该条代码。</t>
   </si>
   <si>
@@ -1941,6 +1939,634 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习中，模型在测试集上效果不好的原因主要有哪两点？</t>
+  </si>
+  <si>
+    <t>K折交叉验证可以产生___个结果，这些结果最后按照某种策略结合。</t>
+  </si>
+  <si>
+    <t>欠拟合表示什么含义？请以自己的理解简述。</t>
+  </si>
+  <si>
+    <t>过拟合表示什么含义？请以自己的理解简述。</t>
+  </si>
+  <si>
+    <t>过拟合对应高方差还是高偏差？</t>
+  </si>
+  <si>
+    <t>K交叉验证将初始样本分为__个子样本，___个子样本作为验证集，___个子样本作为训练集.</t>
+  </si>
+  <si>
+    <t>欠拟合对应高方差还是高偏差？</t>
+  </si>
+  <si>
+    <t>请列出至少两种解决过拟合问题的方式？</t>
+  </si>
+  <si>
+    <t>请列出至少两种解决欠拟合问题的方式？</t>
+  </si>
+  <si>
+    <t>欠拟合模型对应着较__的训练误差和较__的测试误差。</t>
+  </si>
+  <si>
+    <t>过拟合模型对应着较__的训练误差和较__的测试误差。</t>
+  </si>
+  <si>
+    <t>训练数据可以包含验证集么？为什么？</t>
+  </si>
+  <si>
+    <t>一般情况下，数据集可以划分为___, ___, ___。请分别解释三种子数据集的作用。</t>
+  </si>
+  <si>
+    <t>绿线为训练集误差，黄线为交叉验证集误差，请回答：这种学习曲线对应的模型有什么问题？对应高偏差还是高方差？</t>
+  </si>
+  <si>
+    <t>请列举至少三种超参数的类型。</t>
+  </si>
+  <si>
+    <t>难度等级</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义一个分类器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>classifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，现要求基于数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行预测，请写出该条代码。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测是需要先训练，再预测，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是训练模型的，里面的参数一般有两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>fit(X, y[, sample_weight])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，预测为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">classifier.predict(X) </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要给出详细计算过程哦，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>F1=2*precision*recall/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>precision+recall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.6759</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得分的区间是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到正无穷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>β=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得出精度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>β=+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞得出召回率，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>β=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得分，即精度和召回率的调和平均数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">”
+- - - - - - - - - - - - - - -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确，的物理意义就是将准确率和召回率这两个分值合并为一个分值，在合并的过程中，召回率的权重是准确率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√完美拆分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(AUC =1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、良好拆分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0.5&lt;AUC&lt;1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、随机拆分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(AUC=0.5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、差于随机拆分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(0&lt;=AUC&lt;0.5)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recall = TP/(TP+FN),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>召回率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真正例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真正例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假负例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反映了被正确判定的正例占总的正例的比重。”</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请你介绍几种正则化项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2044,7 +2670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2083,6 +2709,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,6 +2742,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2441188</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="7429501"/>
+          <a:ext cx="2441188" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2461285</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="11601451"/>
+          <a:ext cx="2489860" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2699,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25">
@@ -2815,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="114">
@@ -5828,13 +6553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15">
@@ -5872,7 +6598,9 @@
       <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -5922,7 +6650,9 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -5947,7 +6677,9 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -6047,7 +6779,9 @@
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -6072,7 +6806,9 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -6097,7 +6833,9 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -6112,7 +6850,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="30">
+    <row r="12" spans="1:17" ht="78.75">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -6122,7 +6860,9 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -6172,7 +6912,9 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6197,7 +6939,9 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -6212,17 +6956,19 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="45">
+    <row r="16" spans="1:17" ht="60">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6242,7 +6988,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -6262,14 +7008,14 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="9">
+    <row r="18" spans="1:17" ht="15">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="9"/>
@@ -9749,4 +10495,3940 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="30">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" ht="30">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" ht="15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" ht="45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="30">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="30">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="30">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="30">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" ht="45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" ht="210" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="210" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" ht="15">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" ht="22.5">
+      <c r="A34" s="1">
+        <v>17</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="9"/>
+      <c r="Q166" s="9"/>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="9"/>
+      <c r="Q167" s="9"/>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
+      <c r="Q169" s="9"/>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="9"/>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="9"/>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="9"/>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="9"/>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="9"/>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9"/>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="9"/>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9"/>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+      <c r="M185" s="9"/>
+      <c r="N185" s="9"/>
+      <c r="O185" s="9"/>
+      <c r="P185" s="9"/>
+      <c r="Q185" s="9"/>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="9"/>
+      <c r="N186" s="9"/>
+      <c r="O186" s="9"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="9"/>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="9"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="9"/>
+      <c r="Q187" s="9"/>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+      <c r="O188" s="9"/>
+      <c r="P188" s="9"/>
+      <c r="Q188" s="9"/>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9"/>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="9"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9"/>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="9"/>
+      <c r="O191" s="9"/>
+      <c r="P191" s="9"/>
+      <c r="Q191" s="9"/>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" s="9"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9"/>
+      <c r="L192" s="9"/>
+      <c r="M192" s="9"/>
+      <c r="N192" s="9"/>
+      <c r="O192" s="9"/>
+      <c r="P192" s="9"/>
+      <c r="Q192" s="9"/>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="9"/>
+      <c r="N193" s="9"/>
+      <c r="O193" s="9"/>
+      <c r="P193" s="9"/>
+      <c r="Q193" s="9"/>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="9"/>
+      <c r="N194" s="9"/>
+      <c r="O194" s="9"/>
+      <c r="P194" s="9"/>
+      <c r="Q194" s="9"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="9"/>
+      <c r="O195" s="9"/>
+      <c r="P195" s="9"/>
+      <c r="Q195" s="9"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="9"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="9"/>
+      <c r="Q196" s="9"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="9"/>
+      <c r="Q197" s="9"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="9"/>
+      <c r="O198" s="9"/>
+      <c r="P198" s="9"/>
+      <c r="Q198" s="9"/>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="9"/>
+      <c r="N199" s="9"/>
+      <c r="O199" s="9"/>
+      <c r="P199" s="9"/>
+      <c r="Q199" s="9"/>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="9"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="9"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="C24:C32"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>